--- a/extracted_excel/Nyamira_gendered_enterprise.xlsx
+++ b/extracted_excel/Nyamira_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Nyamira</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -148,13 +142,13 @@
     <t>The Participatory Rural Appraisal (PRA) tool was used to engage community members in an inclusive and consultative process. The tool facilitated segregation of participants by gender and age groups to ensure diverse perspectives were captured. Community members were involved in analyzing specific value chains, with a focus on ownership patterns, access to resources, and roles across the agricultural production cycle. This approach ensured that the voices of women, youth, and elders were considered in identifying and prioritizing enterprises relevant to their needs and capacities.</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
     <t>ccess to technology eg ICT, digital gadgets, internet, digital literacy</t>
   </si>
   <si>
-    <t>Enterprise Gender role in value chain why ALV women-planting, weeding, harvesting and marketing men-land preparation and also women Youth-marketing and planting seen as a woman enterprise, less labour intensive ,less capital involved quick money generated Banana women-,management, ripening and marketing, men-land prep, planting,men, staking, pruning, large scale marketing, Youth-transportation, cultural labour intensity and skills most are in boda boda Avocado women-planting, management, marketing, ripening men-planting, harvesting, pruning, transportation youth-transportation, harvesting for men youth not girls cultural labour intensity and skills most are in boda boda Dairy Women-feeding, milking, marketing , selling the milk, cleaning the shelter men-large quantities belong to men, selling sourcing of feeds, mostly men are involved in higher levels of the value chain and the youth and the women a the lower levels. men-prepare land for fodder planting, shelter, spraying and AI , birthing Youth- value addition , transport, source feeding less labour intensive Chicken women-cleaning , feeding, collecting eggs, youth-marketing eggs and live birds and men too men-large selling , youth-feeding, cleaning, egg collection and marketing seen as part of the households-culturally however if they are many they belong to men youth-there is money</t>
+    <t>Cultural- dairy is owned by the man but certain activities are done by the women, by virtual that women participate in labor provision, they tend to do labour related activities gender stereotyping- small animals and crops are seen as of less value -eg a woman cannot sell a cow , for the small ones she can sell. enterprises seen to bring women money in small quantities are owned by women but on a large scale like broilers-done by men. If the enterprise is cash intensive its a man’s enterprise- to ease the women from labou- the county can commercialise the enterprise ,,,the man will out his labour into it Veges was a women’s role but after commercialisation, its taken up even by the youth and women can come on board. Small spaces of land make women venture into local veges and also the nutritional value-land is owned by men</t>
+  </si>
+  <si>
+    <t>Enterprise Gender role in value chain why ALV women-planting, weeding, harvesting and marketing  men-land preparation and also women Youth-marketing and planting seen as a woman enterprise, less labour intensive ,less capital involved  quick money generated Banana women-,management, ripening and marketing, men-land prep, planting,men, staking, pruning, large scale marketing, Youth-transportation, cultural labour intensity and skills most are in boda boda Avocado women-planting, management, marketing, ripening men-planting, harvesting, pruning, transportation youth-transportation, harvesting for men youth not girls cultural labour intensity and skills most are in boda boda Dairy Women-feeding, milking, marketing , selling the milk, cleaning the shelter men-large quantities belong to men, selling sourcing of feeds, mostly men are involved in higher levels of the value chain and the youth and the women a the lower levels. men-prepare land for fodder planting, shelter, spraying and AI , birthing Youth- value addition , transport, source feeding less labour intensive Chicken women-cleaning , feeding, collecting eggs, youth-marketing eggs and live birds and men too men-large selling , youth-feeding, cleaning, egg collection and marketing seen as part of the households-culturally however if they are many they belong to men youth-there is money</t>
   </si>
   <si>
     <t>Resource men women youth elderly land yes-they own the land no control-thou access access no control depends on land division Finance- yes yes yes-those with income or youth groups limited- training and knowledge/extension yes yes yes yes Access to information as market, weather weather updates-limited yes limited to access-no smart phones yes</t>
@@ -536,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,414 +546,276 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
